--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5320" yWindow="2460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_villageCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,30 @@
   </si>
   <si>
     <t>INT_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_woodVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_stoneVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_ironVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_foodVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_coinVillageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_gemVillageCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,8 +220,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -286,7 +312,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="75">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -321,6 +347,9 @@
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -355,6 +384,9 @@
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -709,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1132,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1143,7 +1175,7 @@
     <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,13 +1186,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1174,10 +1221,25 @@
         <v>200</v>
       </c>
       <c r="E2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1191,10 +1253,25 @@
         <v>400</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1208,10 +1285,25 @@
         <v>800</v>
       </c>
       <c r="E4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1225,10 +1317,25 @@
         <v>1600</v>
       </c>
       <c r="E5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1242,10 +1349,25 @@
         <v>3200</v>
       </c>
       <c r="E6" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1259,10 +1381,25 @@
         <v>6400</v>
       </c>
       <c r="E7" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1276,10 +1413,25 @@
         <v>12800</v>
       </c>
       <c r="E8" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1293,10 +1445,25 @@
         <v>25600</v>
       </c>
       <c r="E9" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1310,10 +1477,25 @@
         <v>51200</v>
       </c>
       <c r="E10" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1327,14 +1509,29 @@
         <v>102400</v>
       </c>
       <c r="E11" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15"/>
-    <row r="13" spans="1:5" ht="15"/>
-    <row r="14" spans="1:5" ht="15"/>
-    <row r="15" spans="1:5" ht="15"/>
-    <row r="16" spans="1:5" ht="15"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15"/>
+    <row r="13" spans="1:10" ht="15"/>
+    <row r="14" spans="1:10" ht="15"/>
+    <row r="15" spans="1:10" ht="15"/>
+    <row r="16" spans="1:10" ht="15"/>
     <row r="17" ht="15"/>
     <row r="18" ht="15"/>
     <row r="19" ht="15"/>
@@ -1359,7 +1556,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1381,10 +1578,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -1616,7 +1813,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1637,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1657,7 +1854,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -1674,7 +1871,7 @@
         <v>400</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
@@ -1691,7 +1888,7 @@
         <v>800</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
@@ -1708,7 +1905,7 @@
         <v>1600</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60">
@@ -1725,7 +1922,7 @@
         <v>3200</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
@@ -1742,7 +1939,7 @@
         <v>6400</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75">
@@ -1759,7 +1956,7 @@
         <v>12800</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="90">
@@ -1776,7 +1973,7 @@
         <v>25600</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="105">
@@ -1793,7 +1990,7 @@
         <v>51200</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="105">
@@ -1810,7 +2007,7 @@
         <v>102400</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15"/>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="2460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="7320" yWindow="2860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
     <sheet name="moonGate" sheetId="2" r:id="rId2"/>
     <sheet name="orderHall" sheetId="3" r:id="rId3"/>
-    <sheet name="Shrine" sheetId="4" r:id="rId4"/>
+    <sheet name="shrine" sheetId="4" r:id="rId4"/>
     <sheet name="allianceShop" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -1678,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -1968,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2860" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6460" yWindow="5660" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_perceptivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_pRecovery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,10 @@
   </si>
   <si>
     <t>INT_moveNeedHonour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_perception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -1025,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -1279,25 +1279,25 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15">
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1701,13 +1701,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
@@ -1990,13 +1990,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
@@ -2013,7 +2013,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
         <v>100</v>
@@ -2033,7 +2033,7 @@
         <v>400</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
         <v>100</v>
@@ -2053,7 +2053,7 @@
         <v>800</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
         <v>100</v>
@@ -2073,7 +2073,7 @@
         <v>1600</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2">
         <v>100</v>
@@ -2093,7 +2093,7 @@
         <v>3200</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
@@ -2113,7 +2113,7 @@
         <v>6400</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2">
         <v>100</v>
@@ -2133,7 +2133,7 @@
         <v>12800</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -2153,7 +2153,7 @@
         <v>25600</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
         <v>100</v>
@@ -2173,7 +2173,7 @@
         <v>51200</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>100</v>
@@ -2193,7 +2193,7 @@
         <v>102400</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2">
         <v>100</v>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="5660" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4480" yWindow="1940" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
     <sheet name="moonGate" sheetId="2" r:id="rId2"/>
     <sheet name="orderHall" sheetId="3" r:id="rId3"/>
     <sheet name="shrine" sheetId="4" r:id="rId4"/>
-    <sheet name="allianceShop" sheetId="5" r:id="rId5"/>
+    <sheet name="shop" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1968,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1940" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="4440" yWindow="1700" windowWidth="25600" windowHeight="17000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -865,7 +865,7 @@
         <v>3200</v>
       </c>
       <c r="E6" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2">
         <v>100</v>
@@ -885,7 +885,7 @@
         <v>6400</v>
       </c>
       <c r="E7" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
         <v>100</v>
@@ -905,7 +905,7 @@
         <v>12800</v>
       </c>
       <c r="E8" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -925,7 +925,7 @@
         <v>25600</v>
       </c>
       <c r="E9" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2">
         <v>100</v>
@@ -945,7 +945,7 @@
         <v>51200</v>
       </c>
       <c r="E10" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2">
         <v>100</v>
@@ -965,7 +965,7 @@
         <v>102400</v>
       </c>
       <c r="E11" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2">
         <v>100</v>
@@ -1968,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="180" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="6880" yWindow="380" windowWidth="25600" windowHeight="17000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -176,8 +176,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -274,7 +276,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -318,6 +320,7 @@
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -361,6 +364,7 @@
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1140,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1207,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1239,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -1271,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1303,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -1335,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1367,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -1399,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1431,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1463,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1495,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1786,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1300" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -225,8 +225,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="257">
+  <cellStyleXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,7 +510,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="257">
+  <cellStyles count="265">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -631,6 +639,10 @@
     <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -759,6 +771,10 @@
     <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1281,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
@@ -1665,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C24" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1696,7 +1712,7 @@
         <v>5200</v>
       </c>
       <c r="C2" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>775</v>
@@ -1710,7 +1726,7 @@
         <v>10500</v>
       </c>
       <c r="C3" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>1550</v>
@@ -1724,7 +1740,7 @@
         <v>21000</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>3105</v>
@@ -1738,7 +1754,7 @@
         <v>42000</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>6210</v>
@@ -1752,7 +1768,7 @@
         <v>160300</v>
       </c>
       <c r="C6" s="3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>12425</v>
@@ -1766,7 +1782,7 @@
         <v>562500</v>
       </c>
       <c r="C7" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>24855</v>
@@ -1780,7 +1796,7 @@
         <v>1701600</v>
       </c>
       <c r="C8" s="3">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>57480</v>
@@ -1794,7 +1810,7 @@
         <v>3448900</v>
       </c>
       <c r="C9" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>108185</v>
@@ -1808,7 +1824,7 @@
         <v>6491100</v>
       </c>
       <c r="C10" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
         <v>214095</v>
@@ -1822,7 +1838,7 @@
         <v>12845800</v>
       </c>
       <c r="C11" s="3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2">
         <v>395330</v>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -225,8 +225,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="265">
+  <cellStyleXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -510,7 +516,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="265">
+  <cellStyles count="271">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -643,6 +649,9 @@
     <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -775,6 +784,9 @@
     <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1682,7 +1694,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C23:C24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1712,7 +1724,7 @@
         <v>5200</v>
       </c>
       <c r="C2" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>775</v>
@@ -1726,7 +1738,7 @@
         <v>10500</v>
       </c>
       <c r="C3" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>1550</v>
@@ -1740,7 +1752,7 @@
         <v>21000</v>
       </c>
       <c r="C4" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>3105</v>
@@ -1754,7 +1766,7 @@
         <v>42000</v>
       </c>
       <c r="C5" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>6210</v>
@@ -1768,7 +1780,7 @@
         <v>160300</v>
       </c>
       <c r="C6" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>12425</v>
@@ -1782,7 +1794,7 @@
         <v>562500</v>
       </c>
       <c r="C7" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>24855</v>
@@ -1796,7 +1808,7 @@
         <v>1701600</v>
       </c>
       <c r="C8" s="3">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>57480</v>
@@ -1810,7 +1822,7 @@
         <v>3448900</v>
       </c>
       <c r="C9" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>108185</v>
@@ -1824,7 +1836,7 @@
         <v>6491100</v>
       </c>
       <c r="C10" s="3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>214095</v>
@@ -1838,7 +1850,7 @@
         <v>12845800</v>
       </c>
       <c r="C11" s="3">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>395330</v>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -245,8 +245,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="369">
+  <cellStyleXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -634,7 +638,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="369">
+  <cellStyles count="373">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -819,6 +823,8 @@
     <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1003,6 +1009,8 @@
     <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2237,7 +2245,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+      <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2267,7 +2275,7 @@
         <v>2550</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>85</v>
@@ -2281,7 +2289,7 @@
         <v>6885</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>229</v>
@@ -2295,7 +2303,7 @@
         <v>15300</v>
       </c>
       <c r="C4" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>510</v>
@@ -2309,7 +2317,7 @@
         <v>22950</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>765</v>
@@ -2323,7 +2331,7 @@
         <v>33660</v>
       </c>
       <c r="C6" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>1122</v>
@@ -2337,7 +2345,7 @@
         <v>57120</v>
       </c>
       <c r="C7" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>1904</v>
@@ -2351,7 +2359,7 @@
         <v>94350</v>
       </c>
       <c r="C8" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>3145</v>
@@ -2365,7 +2373,7 @@
         <v>156060</v>
       </c>
       <c r="C9" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>5202</v>
@@ -2379,7 +2387,7 @@
         <v>240975</v>
       </c>
       <c r="C10" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>8032</v>
@@ -2393,7 +2401,7 @@
         <v>367200</v>
       </c>
       <c r="C11" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>12240</v>
@@ -2407,7 +2415,7 @@
         <v>534735</v>
       </c>
       <c r="C12" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>17824</v>
@@ -2421,7 +2429,7 @@
         <v>803250</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
         <v>26775</v>
@@ -2435,7 +2443,7 @@
         <v>1155660</v>
       </c>
       <c r="C14" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>38522</v>
@@ -2449,7 +2457,7 @@
         <v>1689120</v>
       </c>
       <c r="C15" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>56304</v>
@@ -2463,7 +2471,7 @@
         <v>2386800</v>
       </c>
       <c r="C16" s="3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>79560</v>
@@ -2477,7 +2485,7 @@
         <v>3427200</v>
       </c>
       <c r="C17" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>114240</v>
@@ -2491,7 +2499,7 @@
         <v>4769775</v>
       </c>
       <c r="C18" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>158992</v>
@@ -2505,7 +2513,7 @@
         <v>6038400</v>
       </c>
       <c r="C19" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>201280</v>
@@ -2519,7 +2527,7 @@
         <v>6936000</v>
       </c>
       <c r="C20" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
         <v>231200</v>
@@ -2533,7 +2541,7 @@
         <v>9180000</v>
       </c>
       <c r="C21" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
         <v>306000</v>

--- a/gameData/shared/AllianceBuilding.xlsx
+++ b/gameData/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="380" windowWidth="33760" windowHeight="20120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1660" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -134,10 +134,11 @@
     <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4</t>
   </si>
   <si>
-    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4,masterOfDefender_1,warSpeedupClass_1,warSpeedupClass_2</t>
-  </si>
-  <si>
     <t>INT_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4,masterOfDefender_1,warSpeedupClass_1,warSpeedupClass_2,fogOfTrick_1,casinoTokenClass_4,restoreWall_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,6 +640,193 @@
     </xf>
   </cellXfs>
   <cellStyles count="373">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -825,193 +1013,6 @@
     <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1663,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1954,7 +1955,7 @@
         <v>200373</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="135">
+    <row r="21" spans="1:4" ht="150">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>7956000</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>265200</v>
@@ -2003,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -2244,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
